--- a/src/MoayoShare/doc/APItrade.xlsx
+++ b/src/MoayoShare/doc/APItrade.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilwoongkang/Desktop/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilwoongkang/Capstone_server/src/MoayoShare/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E3AB35-BD3C-1A4E-B046-FA10580C126E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B2A3B8-B57E-2148-865B-38C2EA0681EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{E400C9B4-E643-6949-B5CC-D04314549DC1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E400C9B4-E643-6949-B5CC-D04314549DC1}"/>
   </bookViews>
   <sheets>
     <sheet name="req res" sheetId="1" r:id="rId1"/>
-    <sheet name="json" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="38">
   <si>
     <t>헤더</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,14 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bookMap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Share UC01. 도감 공유/수정 - REQUEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Share UC02. 도감 요청 - REQUEST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,71 +91,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0000 - success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json객체값.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Share UC02. 도감 요청 - RESPONSE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요청코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Json 객체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>writer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도감 제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관련태그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도감 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도감태그(없으면 None)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request-Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert or update</t>
+    <t>Share UC01. 도감 공유 - REQUEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dogamModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포맷은 dogamModel.md참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000 - success,0001-fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dogamId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shareDogam - POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getDogam - GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getDogamList - GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dogamListModel[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감 내용. 포맷은 dogamModel.md참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감들에 대한 정보. 포맷은 dogamListModel.md참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/deleteDogam - GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000 : 성공, 0001 : 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getDogamWriterName - GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자 이름에 대한 도감들. 포맷은 dogamListModel.md참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/getDogamKeyword - GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도감 설명 내부 키워드로 검색할 키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색결과 도감들. 포맷은 dogamListModel.md참조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -243,40 +262,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -307,20 +298,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8EF9A73-C832-8842-A11F-A5E84FB60BA1}">
-  <dimension ref="B5:G51"/>
+  <dimension ref="B4:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -648,22 +639,31 @@
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="2:7" ht="30">
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
     <row r="5" spans="2:7" ht="18" customHeight="1">
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" ht="23">
@@ -684,7 +684,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="23">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -697,7 +697,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:7" ht="23">
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
@@ -708,7 +708,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:7" ht="23">
-      <c r="B10" s="8"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
@@ -719,450 +719,1148 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:7" ht="23">
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>32</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="2:7" ht="23">
-      <c r="B12" s="8"/>
+    <row r="12" spans="2:7" ht="48">
+      <c r="B12" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" ht="28" customHeight="1"/>
+    <row r="15" spans="2:7">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6" ht="23">
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="23">
+      <c r="B18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" ht="23">
+      <c r="B19" s="9"/>
+      <c r="C19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" ht="23">
+      <c r="B20" s="9"/>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" ht="23">
+      <c r="B21" s="9"/>
+      <c r="C21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="4">
         <v>30</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" ht="23">
-      <c r="B13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="4">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" ht="23">
-      <c r="B14" s="11"/>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="4">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" ht="23">
-      <c r="B15" s="11"/>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="4">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" ht="23">
-      <c r="B16" s="11"/>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="4">
-        <v>10</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="2:6" ht="23">
-      <c r="B17" s="10"/>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="2:6" ht="28" customHeight="1"/>
-    <row r="20" spans="2:6">
-      <c r="B20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="2:6" ht="23">
       <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" ht="23">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:6" ht="23">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:6" ht="23">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="2:6" ht="30">
+      <c r="B26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="2:6" ht="23">
+      <c r="B29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="23">
-      <c r="B23" s="8" t="s">
+    <row r="30" spans="2:6" ht="23">
+      <c r="B30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="4">
-        <v>10</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="2:6" ht="23">
-      <c r="B24" s="8"/>
-      <c r="C24" s="4" t="s">
+      <c r="D30" s="4">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6" ht="23">
+      <c r="B31" s="9"/>
+      <c r="C31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D31" s="4">
         <v>20</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="2:6" ht="23">
-      <c r="B25" s="8"/>
-      <c r="C25" s="4" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6" ht="23">
+      <c r="B32" s="9"/>
+      <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="4">
-        <v>10</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6" ht="23">
-      <c r="B26" s="8"/>
-      <c r="C26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="D32" s="4">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6" ht="23">
+      <c r="B33" s="9"/>
+      <c r="C33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="4">
         <v>30</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6" ht="23">
-      <c r="B27" s="3" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" ht="23">
+      <c r="B34" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="4">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="2:6" ht="23">
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="23">
+      <c r="B40" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="4">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6" ht="23">
+      <c r="B41" s="9"/>
+      <c r="C41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="4">
+        <v>20</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" ht="23">
+      <c r="B42" s="9"/>
+      <c r="C42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="4">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" ht="23">
+      <c r="B43" s="9"/>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4">
+        <v>30</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" ht="48">
+      <c r="B44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="48" spans="2:6" ht="30">
+      <c r="B48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="2:6" ht="18" customHeight="1">
+      <c r="B49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="2:6" ht="18" customHeight="1">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="2:6" ht="23">
+      <c r="B51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="23">
+      <c r="B52" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="4">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="2:6" ht="23">
+      <c r="B53" s="9"/>
+      <c r="C53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="4">
+        <v>20</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6" ht="23">
+      <c r="B54" s="9"/>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4">
+        <v>10</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" ht="23">
+      <c r="B55" s="9"/>
+      <c r="C55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="4">
+        <v>30</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" ht="23">
+      <c r="B56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="59" spans="2:6" ht="18" customHeight="1">
+      <c r="B59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="2:6" ht="18" customHeight="1">
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="2:6" ht="23">
+      <c r="B61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="23">
+      <c r="B62" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="4">
+        <v>10</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="2:6" ht="23">
+      <c r="B63" s="9"/>
+      <c r="C63" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="4">
+        <v>20</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="2:6" ht="23">
+      <c r="B64" s="9"/>
+      <c r="C64" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="4">
+        <v>10</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="2:6" ht="23">
+      <c r="B65" s="9"/>
+      <c r="C65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="4">
+        <v>30</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="2:6" ht="72">
+      <c r="B66" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="70" spans="2:6" ht="30">
+      <c r="B70" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="2:6" ht="23">
+      <c r="B73" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="23">
+      <c r="B74" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="4">
+        <v>10</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="2:6" ht="23">
+      <c r="B75" s="9"/>
+      <c r="C75" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="4">
+        <v>20</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="2:6" ht="23">
+      <c r="B76" s="9"/>
+      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="4">
+        <v>10</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="2:6" ht="23">
+      <c r="B77" s="9"/>
+      <c r="C77" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="4">
+        <v>30</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="2:6" ht="23">
+      <c r="B78" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="4">
+        <v>4</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="2:6" ht="23">
+      <c r="B83" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="23">
+      <c r="B84" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="4">
+        <v>10</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="2:6" ht="23">
+      <c r="B85" s="9"/>
+      <c r="C85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="4">
+        <v>20</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="2:6" ht="23">
+      <c r="B86" s="9"/>
+      <c r="C86" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="4">
+        <v>10</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="2:6" ht="23">
+      <c r="B87" s="9"/>
+      <c r="C87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="4">
+        <v>30</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="2:6" ht="24">
+      <c r="B88" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="4"/>
+      <c r="E88" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="92" spans="2:6" ht="30">
+      <c r="B92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+    </row>
+    <row r="95" spans="2:6" ht="23">
+      <c r="B95" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="23">
+      <c r="B96" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="4">
+        <v>10</v>
+      </c>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="2:6" ht="23">
+      <c r="B97" s="9"/>
+      <c r="C97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="4">
+        <v>20</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="2:6" ht="23">
+      <c r="B98" s="9"/>
+      <c r="C98" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="4">
+        <v>10</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="2:6" ht="23">
+      <c r="B99" s="9"/>
+      <c r="C99" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="4">
+        <v>30</v>
+      </c>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="2:6" ht="23">
+      <c r="B100" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D100" s="4">
+        <v>10</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+    </row>
+    <row r="105" spans="2:6" ht="23">
+      <c r="B105" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6" ht="23">
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="2:6" ht="23">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="2:6" ht="23">
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="2:6" ht="23">
-      <c r="B34" s="3" t="s">
+      <c r="E105" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" ht="23">
+      <c r="B106" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="4">
+        <v>10</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="2:6" ht="23">
+      <c r="B107" s="9"/>
+      <c r="C107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="4">
+        <v>20</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="2:6" ht="23">
+      <c r="B108" s="9"/>
+      <c r="C108" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="4">
+        <v>10</v>
+      </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="2:6" ht="23">
+      <c r="B109" s="9"/>
+      <c r="C109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="4">
+        <v>30</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="2:6" ht="72">
+      <c r="B110" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="114" spans="2:6" ht="30">
+      <c r="B114" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+    </row>
+    <row r="117" spans="2:6" ht="23">
+      <c r="B117" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C117" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D117" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E117" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F117" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="23">
-      <c r="B35" s="8" t="s">
+    <row r="118" spans="2:6" ht="23">
+      <c r="B118" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="4">
-        <v>10</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6" ht="23">
-      <c r="B36" s="8"/>
-      <c r="C36" s="4" t="s">
+      <c r="D118" s="4">
+        <v>10</v>
+      </c>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="2:6" ht="23">
+      <c r="B119" s="9"/>
+      <c r="C119" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D119" s="4">
         <v>20</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6" ht="23">
-      <c r="B37" s="8"/>
-      <c r="C37" s="4" t="s">
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="2:6" ht="23">
+      <c r="B120" s="9"/>
+      <c r="C120" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="4">
-        <v>10</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6" ht="23">
-      <c r="B38" s="8"/>
-      <c r="C38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="D120" s="4">
+        <v>10</v>
+      </c>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="2:6" ht="23">
+      <c r="B121" s="9"/>
+      <c r="C121" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="4">
         <v>30</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6" ht="23">
-      <c r="B39" s="9" t="s">
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="2:6" ht="48">
+      <c r="B122" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C122" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D122" s="4">
+        <v>10</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+    </row>
+    <row r="127" spans="2:6" ht="23">
+      <c r="B127" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" ht="23">
+      <c r="B128" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="4">
+        <v>10</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="2:6" ht="23">
+      <c r="B129" s="9"/>
+      <c r="C129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="4">
         <v>20</v>
       </c>
-      <c r="D39" s="4">
-        <v>10</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+    </row>
+    <row r="130" spans="2:6" ht="23">
+      <c r="B130" s="9"/>
+      <c r="C130" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="4">
+        <v>10</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+    </row>
+    <row r="131" spans="2:6" ht="23">
+      <c r="B131" s="9"/>
+      <c r="C131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="4">
         <v>30</v>
       </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6" ht="23">
-      <c r="B40" s="10"/>
-      <c r="C40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="4">
-        <v>4</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="2:6" ht="23">
-      <c r="B45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="23">
-      <c r="B46" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="4">
-        <v>10</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="2:6" ht="23">
-      <c r="B47" s="8"/>
-      <c r="C47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="4">
-        <v>20</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="2:6" ht="23">
-      <c r="B48" s="8"/>
-      <c r="C48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="4">
-        <v>10</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="2:6" ht="23">
-      <c r="B49" s="8"/>
-      <c r="C49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="4">
-        <v>30</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="2:6" ht="23">
-      <c r="B50" s="9" t="s">
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="2:6" ht="48">
+      <c r="B132" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="4">
-        <v>4</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="2:6" ht="23">
-      <c r="B51" s="10"/>
-      <c r="C51" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="4"/>
+      <c r="C132" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="4"/>
+      <c r="E132" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F132" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="30">
+    <mergeCell ref="B125:F126"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="B103:F104"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F116"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B81:F82"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F94"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B59:F60"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F72"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F50"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B37:F38"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B8:B11"/>
     <mergeCell ref="B5:F6"/>
-    <mergeCell ref="B32:F33"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B43:F44"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B27:F28"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B15:F16"/>
+    <mergeCell ref="B18:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CF1EEB-BFAA-C54B-8E72-135223A5A254}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>